--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 14 - Mash Tun 1/99RP270_S14_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 14 - Mash Tun 1/99RP270_S14_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 14 - Mash Tun 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C593546-7BCC-2C45-85B2-1360080B11AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D28C08B-DF45-0147-86A4-5A2F6B341EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="11" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="25560" windowHeight="21140" firstSheet="1" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1395" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="159">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -638,12 +638,39 @@
   <si>
     <t>9RP256.3769:423VCM</t>
   </si>
+  <si>
+    <t>99RP270.2791:1293VCM</t>
+  </si>
+  <si>
+    <t>99RP270.2793:1293VCM</t>
+  </si>
+  <si>
+    <t>99RP270.2793:597RUNT</t>
+  </si>
+  <si>
+    <t>99RP270.2795:1293VCM</t>
+  </si>
+  <si>
+    <t>99RP270.2795:597RUNT</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>025: Act HCl material</t>
+  </si>
+  <si>
+    <t>028: Act HCl dosing</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -707,8 +734,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -760,6 +794,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -923,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -992,6 +1038,11 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1028,6 +1079,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5526,14 +5579,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Function: Massafra -   | Bergamo - 04: Dosing time WWT</v>
+        <v>-- Function: Massafra -  04: Dosing time WWT | Bergamo - 04: Dosing time WWT</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$4="NULL","",IF(ISBLANK('01 Function Comparison'!$K$4),"",'01 Function Comparison'!$K$4))</f>
-        <v/>
+        <v>04: Dosing time WWT</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -5599,14 +5652,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Function: Massafra -   | Bergamo - 11: MES: Time from mashing till Rest/Heat</v>
+        <v>-- Function: Massafra -  11: MES: Time from mashing till Rest/Heat | Bergamo - 11: MES: Time from mashing till Rest/Heat</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$5="NULL","",IF(ISBLANK('01 Function Comparison'!$K$5),"",'01 Function Comparison'!$K$5))</f>
-        <v/>
+        <v>11: MES: Time from mashing till Rest/Heat</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -5672,14 +5725,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v xml:space="preserve">-- Function: Massafra -  Check time sealing flow Agitator | Bergamo - </v>
+        <v xml:space="preserve">-- Function: Massafra -   | Bergamo - </v>
       </c>
       <c r="B17" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Function Comparison'!$K$6="NULL","",IF(ISBLANK('01 Function Comparison'!$K$6),"",'01 Function Comparison'!$K$6))</f>
-        <v>Check time sealing flow Agitator</v>
+        <v/>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -5729,7 +5782,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP270.1073742678SUPPLFX'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -5739,7 +5792,7 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Function Comparison'!$L$6="NULL","",IF(ISBLANK('01 Function Comparison'!$L$6),"",'01 Function Comparison'!$L$6))</f>
-        <v>99RP270.1073742678SUPPLFX</v>
+        <v/>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -7881,8 +7934,8 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8057,14 +8110,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Operation: Massafra - 145 - Heat Up ( Heating time ) | Bergamo - Rest ( Rest time )</v>
+        <v>-- Operation: Massafra - 144 - Rest ( Rest time ) | Bergamo - Rest ( Rest time )</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$5),"",CONCATENATE('01 Operation Comparison'!$N$5," ( ",'01 Operation Comparison'!$O$5," )")))</f>
-        <v>145 - Heat Up ( Heating time )</v>
+        <v>144 - Rest ( Rest time )</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -8114,7 +8167,7 @@
     <row r="16" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="str">
         <f>CONCATENATE(D16,"N'",F16,"'")</f>
-        <v>WHERE _Name = N'99RP270.2792:599VCM'</v>
+        <v>WHERE _Name = N'99RP270.2793:599VCM'</v>
       </c>
       <c r="B16" s="23"/>
       <c r="C16" s="30"/>
@@ -8124,20 +8177,20 @@
       <c r="E16" s="36"/>
       <c r="F16" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$5="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$5),"",'01 Operation Comparison'!$P$5))</f>
-        <v>99RP270.2792:599VCM</v>
+        <v>99RP270.2793:599VCM</v>
       </c>
     </row>
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Operation: Massafra - 145 - Heat Up ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
+        <v>-- Operation: Massafra - 144 - Rest ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$6),"",CONCATENATE('01 Operation Comparison'!$N$6," ( ",'01 Operation Comparison'!$O$6," )")))</f>
-        <v>145 - Heat Up ( Temp Mash tun )</v>
+        <v>144 - Rest ( Temp Mash tun )</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -8187,7 +8240,7 @@
     <row r="21" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="str">
         <f>CONCATENATE(D21,"N'",F21,"'")</f>
-        <v>WHERE _Name = N'99RP270.2792:1293VCM'</v>
+        <v>WHERE _Name = N'99RP270.2791:1293VCM'</v>
       </c>
       <c r="B21" s="23"/>
       <c r="C21" s="30"/>
@@ -8197,20 +8250,20 @@
       <c r="E21" s="36"/>
       <c r="F21" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$6="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$6),"",'01 Operation Comparison'!$P$6))</f>
-        <v>99RP270.2792:1293VCM</v>
+        <v>99RP270.2791:1293VCM</v>
       </c>
     </row>
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Operation: Massafra - 144 - Rest ( Rest time ) | Bergamo - Heat up ( Heating time )</v>
+        <v>-- Operation: Massafra - 145 - Heat Up ( Heating time ) | Bergamo - Heat up ( Heating time )</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$7),"",CONCATENATE('01 Operation Comparison'!$N$7," ( ",'01 Operation Comparison'!$O$7," )")))</f>
-        <v>144 - Rest ( Rest time )</v>
+        <v>145 - Heat Up ( Heating time )</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -8260,7 +8313,7 @@
     <row r="26" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A26" s="41" t="str">
         <f>CONCATENATE(D26,"N'",F26,"'")</f>
-        <v>WHERE _Name = N'99RP270.2793:599VCM'</v>
+        <v>WHERE _Name = N'99RP270.2792:599VCM'</v>
       </c>
       <c r="B26" s="23"/>
       <c r="C26" s="30"/>
@@ -8270,20 +8323,20 @@
       <c r="E26" s="36"/>
       <c r="F26" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$7="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$7),"",'01 Operation Comparison'!$P$7))</f>
-        <v>99RP270.2793:599VCM</v>
+        <v>99RP270.2792:599VCM</v>
       </c>
     </row>
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Operation: Massafra - 145 - Heat Up ( Heating time ) | Bergamo - Rest ( Rest time )</v>
+        <v>-- Operation: Massafra - 144 - Rest ( Rest time ) | Bergamo - Rest ( Rest time )</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$8="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$8),"",CONCATENATE('01 Operation Comparison'!$N$8," ( ",'01 Operation Comparison'!$O$8," )")))</f>
-        <v>145 - Heat Up ( Heating time )</v>
+        <v>144 - Rest ( Rest time )</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>14</v>
@@ -8333,7 +8386,7 @@
     <row r="31" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="41" t="str">
         <f>CONCATENATE(D31,"N'",F31,"'")</f>
-        <v>WHERE _Name = N'99RP270.2794:599VCM'</v>
+        <v>WHERE _Name = N'99RP270.2793:597RUNT'</v>
       </c>
       <c r="B31" s="23"/>
       <c r="C31" s="30"/>
@@ -8343,20 +8396,20 @@
       <c r="E31" s="36"/>
       <c r="F31" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$8="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$8),"",'01 Operation Comparison'!$P$8))</f>
-        <v>99RP270.2794:599VCM</v>
+        <v>99RP270.2793:597RUNT</v>
       </c>
     </row>
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Operation: Massafra - 145 - Heat Up ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
+        <v>-- Operation: Massafra - 144 - Rest ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$9="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$9),"",CONCATENATE('01 Operation Comparison'!$N$9," ( ",'01 Operation Comparison'!$O$9," )")))</f>
-        <v>145 - Heat Up ( Temp Mash tun )</v>
+        <v>144 - Rest ( Temp Mash tun )</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>14</v>
@@ -8406,7 +8459,7 @@
     <row r="36" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="str">
         <f>CONCATENATE(D36,"N'",F36,"'")</f>
-        <v>WHERE _Name = N'99RP270.2794:1293VCM'</v>
+        <v>WHERE _Name = N'99RP270.2793:1293VCM'</v>
       </c>
       <c r="B36" s="23"/>
       <c r="C36" s="30"/>
@@ -8416,20 +8469,20 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$9="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$9),"",'01 Operation Comparison'!$P$9))</f>
-        <v>99RP270.2794:1293VCM</v>
+        <v>99RP270.2793:1293VCM</v>
       </c>
     </row>
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Operation: Massafra - 144 - Rest ( Rest time ) | Bergamo - Heat up ( Heating time )</v>
+        <v>-- Operation: Massafra - 145 - Heat Up ( Heating time ) | Bergamo - Heat up ( Heating time )</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$10="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$10),"",CONCATENATE('01 Operation Comparison'!$N$10," ( ",'01 Operation Comparison'!$O$10," )")))</f>
-        <v>144 - Rest ( Rest time )</v>
+        <v>145 - Heat Up ( Heating time )</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -8479,7 +8532,7 @@
     <row r="41" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="41" t="str">
         <f>CONCATENATE(D41,"N'",F41,"'")</f>
-        <v>WHERE _Name = N'99RP270.2795:599VCM'</v>
+        <v>WHERE _Name = N'99RP270.2794:599VCM'</v>
       </c>
       <c r="B41" s="23"/>
       <c r="C41" s="30"/>
@@ -8489,20 +8542,20 @@
       <c r="E41" s="36"/>
       <c r="F41" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$10="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$10),"",'01 Operation Comparison'!$P$10))</f>
-        <v>99RP270.2795:599VCM</v>
+        <v>99RP270.2794:599VCM</v>
       </c>
     </row>
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Operation: Massafra - 146 - Transfer MT I -&gt; MF ( Rinsing time ) | Bergamo - Heat up ( Heating time )</v>
+        <v>-- Operation: Massafra -  | Bergamo - Heat up ( Heating time )</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$11="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$11),"",CONCATENATE('01 Operation Comparison'!$N$11," ( ",'01 Operation Comparison'!$O$11," )")))</f>
-        <v>146 - Transfer MT I -&gt; MF ( Rinsing time )</v>
+        <v/>
       </c>
       <c r="D42" s="25" t="s">
         <v>14</v>
@@ -8552,7 +8605,7 @@
     <row r="46" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A46" s="41" t="str">
         <f>CONCATENATE(D46,"N'",F46,"'")</f>
-        <v>WHERE _Name = N'99RP270.2797:599VCM'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B46" s="23"/>
       <c r="C46" s="30"/>
@@ -8562,20 +8615,20 @@
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$11="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$11),"",'01 Operation Comparison'!$P$11))</f>
-        <v>99RP270.2797:599VCM</v>
+        <v/>
       </c>
     </row>
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Rest time )</v>
+        <v>-- Operation: Massafra - 144 - Rest ( Rest time ) | Bergamo - Rest ( Rest time )</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$12="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$12),"",CONCATENATE('01 Operation Comparison'!$N$12," ( ",'01 Operation Comparison'!$O$12," )")))</f>
-        <v/>
+        <v>144 - Rest ( Rest time )</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>
@@ -8625,7 +8678,7 @@
     <row r="51" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A51" s="41" t="str">
         <f>CONCATENATE(D51,"N'",F51,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP270.2795:597RUNT'</v>
       </c>
       <c r="B51" s="23"/>
       <c r="C51" s="30"/>
@@ -8635,20 +8688,20 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$12="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$12),"",'01 Operation Comparison'!$P$12))</f>
-        <v/>
+        <v>99RP270.2795:597RUNT</v>
       </c>
     </row>
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Rest ( Temp Mash Tun )</v>
+        <v>-- Operation: Massafra - 144 - Rest ( Temp Mash tun ) | Bergamo - Rest ( Temp Mash Tun )</v>
       </c>
       <c r="B52" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$13="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$13),"",CONCATENATE('01 Operation Comparison'!$N$13," ( ",'01 Operation Comparison'!$O$13," )")))</f>
-        <v/>
+        <v>144 - Rest ( Temp Mash tun )</v>
       </c>
       <c r="D52" s="25" t="s">
         <v>14</v>
@@ -8698,7 +8751,7 @@
     <row r="56" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="str">
         <f>CONCATENATE(D56,"N'",F56,"'")</f>
-        <v>WHERE _Name = N''</v>
+        <v>WHERE _Name = N'99RP270.2795:1293VCM'</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="30"/>
@@ -8708,7 +8761,7 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="str">
         <f>IF('01 Operation Comparison'!$P$13="NULL","",IF(ISBLANK('01 Operation Comparison'!$P$13),"",'01 Operation Comparison'!$P$13))</f>
-        <v/>
+        <v>99RP270.2795:1293VCM</v>
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
@@ -10570,7 +10623,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="L1" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
@@ -11374,8 +11427,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3:K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11398,28 +11451,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -11494,15 +11547,13 @@
       <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="2">
-        <v>5</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="J3" s="62" t="s">
+        <v>155</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="61"/>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
         <v>5</v>
@@ -11545,15 +11596,13 @@
       <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="J4" s="62" t="s">
+        <v>156</v>
+      </c>
+      <c r="K4" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="L4" s="61"/>
       <c r="N4" s="11" t="str">
         <f>'00 Value Source'!H2</f>
         <v>NULL</v>
@@ -11599,8 +11648,8 @@
       <c r="J5" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
+      <c r="K5" s="44" t="s">
+        <v>36</v>
       </c>
       <c r="L5" s="4" t="s">
         <v>26</v>
@@ -11650,8 +11699,8 @@
       <c r="J6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>26</v>
+      <c r="K6" s="44" t="s">
+        <v>39</v>
       </c>
       <c r="L6" s="4" t="s">
         <v>26</v>
@@ -11701,8 +11750,8 @@
       <c r="J7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>26</v>
+      <c r="K7" s="44" t="s">
+        <v>42</v>
       </c>
       <c r="L7" s="4" t="s">
         <v>26</v>
@@ -11752,8 +11801,8 @@
       <c r="J8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>26</v>
+      <c r="K8" s="44" t="s">
+        <v>46</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>26</v>
@@ -11803,8 +11852,8 @@
       <c r="J9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K9" s="3" t="s">
-        <v>26</v>
+      <c r="K9" s="44" t="s">
+        <v>49</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>26</v>
@@ -11854,8 +11903,8 @@
       <c r="J10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>26</v>
+      <c r="K10" s="44" t="s">
+        <v>52</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>26</v>
@@ -11905,8 +11954,8 @@
       <c r="J11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>26</v>
+      <c r="K11" s="44" t="s">
+        <v>55</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>26</v>
@@ -11956,8 +12005,8 @@
       <c r="J12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>26</v>
+      <c r="K12" s="48" t="s">
+        <v>58</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>26</v>
@@ -11992,15 +12041,6 @@
         <f>'00 Value Source'!P11</f>
         <v>NULL</v>
       </c>
-      <c r="J13" s="2">
-        <v>1</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="N13" s="11">
         <f>'00 Value Source'!H11</f>
         <v>1</v>
@@ -12031,15 +12071,6 @@
         <f>'00 Value Source'!P12</f>
         <v>NULL</v>
       </c>
-      <c r="J14" s="2">
-        <v>2</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="N14" s="11">
         <f>'00 Value Source'!H12</f>
         <v>2</v>
@@ -12070,15 +12101,6 @@
         <f>'00 Value Source'!P13</f>
         <v>NULL</v>
       </c>
-      <c r="J15" s="2">
-        <v>3</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>67</v>
-      </c>
       <c r="N15" s="11">
         <f>'00 Value Source'!H13</f>
         <v>3</v>
@@ -12109,15 +12131,6 @@
         <f>'00 Value Source'!P14</f>
         <v>NULL</v>
       </c>
-      <c r="J16" s="2">
-        <v>6</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>70</v>
-      </c>
       <c r="N16" s="11">
         <f>'00 Value Source'!H14</f>
         <v>6</v>
@@ -12147,15 +12160,6 @@
       <c r="D17" s="13" t="str">
         <f>'00 Value Source'!P15</f>
         <v>NULL</v>
-      </c>
-      <c r="J17" s="2">
-        <v>11</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>72</v>
       </c>
       <c r="N17" s="11">
         <f>'00 Value Source'!H15</f>
@@ -17484,28 +17488,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -23784,8 +23788,8 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -23808,28 +23812,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="46"/>
-      <c r="F1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="51"/>
+      <c r="F1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="50" t="s">
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="51"/>
-      <c r="L1" s="52"/>
-      <c r="N1" s="53" t="s">
+      <c r="K1" s="56"/>
+      <c r="L1" s="57"/>
+      <c r="N1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="54"/>
-      <c r="P1" s="55"/>
+      <c r="O1" s="59"/>
+      <c r="P1" s="60"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -23955,14 +23959,8 @@
       <c r="I4" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>26</v>
+      <c r="K4" s="44" t="s">
+        <v>82</v>
       </c>
       <c r="N4" s="11" t="str">
         <f>'00 Function Source'!H2</f>
@@ -24006,14 +24004,8 @@
       <c r="I5" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="J5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>26</v>
+      <c r="K5" s="44" t="s">
+        <v>85</v>
       </c>
       <c r="N5" s="11" t="str">
         <f>'00 Function Source'!H3</f>
@@ -24044,15 +24036,6 @@
       <c r="D6" s="13" t="str">
         <f>'00 Function Source'!P4</f>
         <v>NULL</v>
-      </c>
-      <c r="J6" s="2">
-        <v>31</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>88</v>
       </c>
       <c r="N6" s="11">
         <f>'00 Function Source'!H4</f>
@@ -30567,6 +30550,7 @@
     <mergeCell ref="N1:P1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -30575,8 +30559,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30591,7 +30575,7 @@
     <col min="8" max="8" width="15.5" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="3" customWidth="1"/>
-    <col min="11" max="11" width="12.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" style="3" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="43.6640625" style="4" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14.83203125" style="2" bestFit="1" customWidth="1"/>
@@ -30603,32 +30587,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="46"/>
-      <c r="H1" s="47" t="s">
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="51"/>
+      <c r="H1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50" t="s">
+      <c r="I1" s="53"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
+      <c r="L1" s="53"/>
+      <c r="M1" s="54"/>
+      <c r="N1" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="51"/>
-      <c r="P1" s="52"/>
-      <c r="R1" s="53" t="s">
+      <c r="O1" s="56"/>
+      <c r="P1" s="57"/>
+      <c r="R1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="54"/>
-      <c r="T1" s="55"/>
+      <c r="S1" s="59"/>
+      <c r="T1" s="60"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -30729,15 +30713,9 @@
       <c r="M3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>26</v>
-      </c>
+      <c r="N3" s="45"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="47"/>
       <c r="R3" s="11" t="str">
         <f>'00 Operation Source'!C1</f>
         <v>NULL</v>
@@ -30860,13 +30838,13 @@
         <v>113</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="R5" s="11" t="str">
         <f>'00 Operation Source'!C3</f>
@@ -30925,13 +30903,13 @@
         <v>120</v>
       </c>
       <c r="N6" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O6" s="3" t="s">
         <v>117</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="R6" s="11" t="str">
         <f>'00 Operation Source'!C4</f>
@@ -30990,13 +30968,13 @@
         <v>128</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="R7" s="11" t="str">
         <f>'00 Operation Source'!C5</f>
@@ -31055,13 +31033,13 @@
         <v>131</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>130</v>
+        <v>152</v>
       </c>
       <c r="R8" s="11" t="str">
         <f>'00 Operation Source'!C6</f>
@@ -31120,13 +31098,13 @@
         <v>134</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>105</v>
+        <v>123</v>
       </c>
       <c r="O9" s="3" t="s">
         <v>117</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>133</v>
+        <v>151</v>
       </c>
       <c r="R9" s="11" t="str">
         <f>'00 Operation Source'!C7</f>
@@ -31185,13 +31163,13 @@
         <v>137</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>123</v>
+        <v>105</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="P10" s="4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="R10" s="11" t="str">
         <f>'00 Operation Source'!C8</f>
@@ -31249,15 +31227,9 @@
       <c r="M11" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="N11" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>141</v>
-      </c>
+      <c r="N11" s="45"/>
+      <c r="O11" s="46"/>
+      <c r="P11" s="47"/>
       <c r="R11" s="11" t="str">
         <f>'00 Operation Source'!C9</f>
         <v>146 - Transfer MT I -&gt; MF</v>
@@ -31315,13 +31287,13 @@
         <v>146</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
       <c r="P12" s="4" t="s">
-        <v>26</v>
+        <v>154</v>
       </c>
       <c r="R12" s="11" t="str">
         <f>'00 Operation Source'!C10</f>
@@ -31380,13 +31352,13 @@
         <v>148</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>26</v>
+        <v>123</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>26</v>
+        <v>153</v>
       </c>
       <c r="R13" s="11" t="str">
         <f>'00 Operation Source'!C11</f>
@@ -36027,14 +35999,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -  Raw Material total | Bergamo - 005: Act HCl material</v>
+        <v>-- Value: Massafra -  025: Act HCl material | Bergamo - 005: Act HCl material</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v>Raw Material total</v>
+        <v>025: Act HCl material</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -36084,7 +36056,7 @@
     <row r="6" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A6" s="41" t="str">
         <f>CONCATENATE(D6,"N'",F6,"'")</f>
-        <v>WHERE _Name = N'99RP270.536873997SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="30"/>
@@ -36094,20 +36066,20 @@
       <c r="E6" s="36"/>
       <c r="F6" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$3="NULL","",IF(ISBLANK('01 Value Comparison'!$L$3),"",'01 Value Comparison'!$L$3))</f>
-        <v>99RP270.536873997SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 008: Act HCl dosing</v>
+        <v>-- Value: Massafra -  028: Act HCl dosing | Bergamo - 008: Act HCl dosing</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>028: Act HCl dosing</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>14</v>
@@ -36173,14 +36145,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -   | Bergamo - 010: MES: Mean mashing T°C</v>
+        <v>-- Value: Massafra -  010: MES: Mean mashing T°C | Bergamo - 010: MES: Mean mashing T°C</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v/>
+        <v>010: MES: Mean mashing T°C</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>14</v>
@@ -36246,14 +36218,14 @@
     <row r="17" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="38" t="str">
         <f>CONCATENATE(B17,C17,D17,E17)</f>
-        <v>-- Value: Massafra -   | Bergamo - 014: MES: Volume Mash MT (malto)</v>
+        <v>-- Value: Massafra -  014: MES: Volume Mash MT (malto) | Bergamo - 014: MES: Volume Mash MT (malto)</v>
       </c>
       <c r="B17" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C17" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$6="NULL","",IF(ISBLANK('01 Value Comparison'!$K$6),"",'01 Value Comparison'!$K$6))</f>
-        <v/>
+        <v>014: MES: Volume Mash MT (malto)</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>14</v>
@@ -36319,14 +36291,14 @@
     <row r="22" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="38" t="str">
         <f>CONCATENATE(B22,C22,D22,E22)</f>
-        <v>-- Value: Massafra -   | Bergamo - 015: MES: Time filling</v>
+        <v>-- Value: Massafra -  015: MES: Time filling | Bergamo - 015: MES: Time filling</v>
       </c>
       <c r="B22" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$7="NULL","",IF(ISBLANK('01 Value Comparison'!$K$7),"",'01 Value Comparison'!$K$7))</f>
-        <v/>
+        <v>015: MES: Time filling</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>14</v>
@@ -36392,14 +36364,14 @@
     <row r="27" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="38" t="str">
         <f>CONCATENATE(B27,C27,D27,E27)</f>
-        <v>-- Value: Massafra -   | Bergamo - 020: MES: Man value - Gravity acc. at WC</v>
+        <v>-- Value: Massafra -  020: MES: Man value - Gravity acc. at WC | Bergamo - 020: MES: Man value - Gravity acc. at WC</v>
       </c>
       <c r="B27" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$8="NULL","",IF(ISBLANK('01 Value Comparison'!$K$8),"",'01 Value Comparison'!$K$8))</f>
-        <v/>
+        <v>020: MES: Man value - Gravity acc. at WC</v>
       </c>
       <c r="D27" s="25" t="s">
         <v>14</v>
@@ -36465,14 +36437,14 @@
     <row r="32" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A32" s="38" t="str">
         <f>CONCATENATE(B32,C32,D32,E32)</f>
-        <v>-- Value: Massafra -   | Bergamo - 023: MES UTIF Maize</v>
+        <v>-- Value: Massafra -  023: MES UTIF Maize | Bergamo - 023: MES UTIF Maize</v>
       </c>
       <c r="B32" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$9="NULL","",IF(ISBLANK('01 Value Comparison'!$K$9),"",'01 Value Comparison'!$K$9))</f>
-        <v/>
+        <v>023: MES UTIF Maize</v>
       </c>
       <c r="D32" s="25" t="s">
         <v>14</v>
@@ -36538,14 +36510,14 @@
     <row r="37" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A37" s="38" t="str">
         <f>CONCATENATE(B37,C37,D37,E37)</f>
-        <v>-- Value: Massafra -   | Bergamo - 045: MES: Time Grist Bin Rest</v>
+        <v>-- Value: Massafra -  045: MES: Time Grist Bin Rest | Bergamo - 045: MES: Time Grist Bin Rest</v>
       </c>
       <c r="B37" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$10="NULL","",IF(ISBLANK('01 Value Comparison'!$K$10),"",'01 Value Comparison'!$K$10))</f>
-        <v/>
+        <v>045: MES: Time Grist Bin Rest</v>
       </c>
       <c r="D37" s="25" t="s">
         <v>14</v>
@@ -36611,14 +36583,14 @@
     <row r="42" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="38" t="str">
         <f>CONCATENATE(B42,C42,D42,E42)</f>
-        <v>-- Value: Massafra -   | Bergamo - 060: Man. ph Mashing [ph]</v>
+        <v>-- Value: Massafra -  060: Man. ph Mashing [ph] | Bergamo - 060: Man. ph Mashing [ph]</v>
       </c>
       <c r="B42" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C42" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$11="NULL","",IF(ISBLANK('01 Value Comparison'!$K$11),"",'01 Value Comparison'!$K$11))</f>
-        <v/>
+        <v>060: Man. ph Mashing [ph]</v>
       </c>
       <c r="D42" s="25" t="s">
         <v>14</v>
@@ -36684,14 +36656,14 @@
     <row r="47" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="38" t="str">
         <f>CONCATENATE(B47,C47,D47,E47)</f>
-        <v>-- Value: Massafra -   | Bergamo - 061: Man. Confirm Saccarification</v>
+        <v>-- Value: Massafra -  061: Man. Confirm Saccarification | Bergamo - 061: Man. Confirm Saccarification</v>
       </c>
       <c r="B47" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C47" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$12="NULL","",IF(ISBLANK('01 Value Comparison'!$K$12),"",'01 Value Comparison'!$K$12))</f>
-        <v/>
+        <v>061: Man. Confirm Saccarification</v>
       </c>
       <c r="D47" s="25" t="s">
         <v>14</v>
@@ -36757,14 +36729,14 @@
     <row r="52" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A52" s="38" t="str">
         <f>CONCATENATE(B52,C52,D52,E52)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Cacl2 line volume | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B52" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C52" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$13="NULL","",IF(ISBLANK('01 Value Comparison'!$K$13),"",'01 Value Comparison'!$K$13))</f>
-        <v>Cacl2 line volume</v>
+        <v/>
       </c>
       <c r="D52" s="25" t="s">
         <v>14</v>
@@ -36814,7 +36786,7 @@
     <row r="56" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A56" s="41" t="str">
         <f>CONCATENATE(D56,"N'",F56,"'")</f>
-        <v>WHERE _Name = N'99RP270.536873921SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B56" s="23"/>
       <c r="C56" s="30"/>
@@ -36824,20 +36796,20 @@
       <c r="E56" s="36"/>
       <c r="F56" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$13="NULL","",IF(ISBLANK('01 Value Comparison'!$L$13),"",'01 Value Comparison'!$L$13))</f>
-        <v>99RP270.536873921SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="57" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="38" t="str">
         <f>CONCATENATE(B57,C57,D57,E57)</f>
-        <v xml:space="preserve">-- Value: Massafra -  MK Level | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B57" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C57" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$14="NULL","",IF(ISBLANK('01 Value Comparison'!$K$14),"",'01 Value Comparison'!$K$14))</f>
-        <v>MK Level</v>
+        <v/>
       </c>
       <c r="D57" s="25" t="s">
         <v>14</v>
@@ -36887,7 +36859,7 @@
     <row r="61" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A61" s="41" t="str">
         <f>CONCATENATE(D61,"N'",F61,"'")</f>
-        <v>WHERE _Name = N'99RP270.536871088SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B61" s="23"/>
       <c r="C61" s="30"/>
@@ -36897,20 +36869,20 @@
       <c r="E61" s="36"/>
       <c r="F61" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$14="NULL","",IF(ISBLANK('01 Value Comparison'!$L$14),"",'01 Value Comparison'!$L$14))</f>
-        <v>99RP270.536871088SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="62" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="38" t="str">
         <f>CONCATENATE(B62,C62,D62,E62)</f>
-        <v xml:space="preserve">-- Value: Massafra -  CaCl2 dosing | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B62" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C62" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$15="NULL","",IF(ISBLANK('01 Value Comparison'!$K$15),"",'01 Value Comparison'!$K$15))</f>
-        <v>CaCl2 dosing</v>
+        <v/>
       </c>
       <c r="D62" s="25" t="s">
         <v>14</v>
@@ -36960,7 +36932,7 @@
     <row r="66" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A66" s="41" t="str">
         <f>CONCATENATE(D66,"N'",F66,"'")</f>
-        <v>WHERE _Name = N'99RP270.536871499SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B66" s="23"/>
       <c r="C66" s="30"/>
@@ -36970,20 +36942,20 @@
       <c r="E66" s="36"/>
       <c r="F66" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$15="NULL","",IF(ISBLANK('01 Value Comparison'!$L$15),"",'01 Value Comparison'!$L$15))</f>
-        <v>99RP270.536871499SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="67" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="38" t="str">
         <f>CONCATENATE(B67,C67,D67,E67)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Extract malt start | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B67" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C67" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$16="NULL","",IF(ISBLANK('01 Value Comparison'!$K$16),"",'01 Value Comparison'!$K$16))</f>
-        <v>Extract malt start</v>
+        <v/>
       </c>
       <c r="D67" s="25" t="s">
         <v>14</v>
@@ -37033,7 +37005,7 @@
     <row r="71" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A71" s="41" t="str">
         <f>CONCATENATE(D71,"N'",F71,"'")</f>
-        <v>WHERE _Name = N'99RP270.536873998SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B71" s="23"/>
       <c r="C71" s="30"/>
@@ -37043,20 +37015,20 @@
       <c r="E71" s="36"/>
       <c r="F71" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$16="NULL","",IF(ISBLANK('01 Value Comparison'!$L$16),"",'01 Value Comparison'!$L$16))</f>
-        <v>99RP270.536873998SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="72" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="38" t="str">
         <f>CONCATENATE(B72,C72,D72,E72)</f>
-        <v xml:space="preserve">-- Value: Massafra -  Batchnumber repair | Bergamo - </v>
+        <v xml:space="preserve">-- Value: Massafra -   | Bergamo - </v>
       </c>
       <c r="B72" s="21" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$17="NULL","",IF(ISBLANK('01 Value Comparison'!$K$17),"",'01 Value Comparison'!$K$17))</f>
-        <v>Batchnumber repair</v>
+        <v/>
       </c>
       <c r="D72" s="25" t="s">
         <v>14</v>
@@ -37106,7 +37078,7 @@
     <row r="76" spans="1:6" s="24" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A76" s="41" t="str">
         <f>CONCATENATE(D76,"N'",F76,"'")</f>
-        <v>WHERE _Name = N'99RP270.536874489SUPPLVA'</v>
+        <v>WHERE _Name = N''</v>
       </c>
       <c r="B76" s="23"/>
       <c r="C76" s="30"/>
@@ -37116,7 +37088,7 @@
       <c r="E76" s="36"/>
       <c r="F76" s="36" t="str">
         <f>IF('01 Value Comparison'!$L$17="NULL","",IF(ISBLANK('01 Value Comparison'!$L$17),"",'01 Value Comparison'!$L$17))</f>
-        <v>99RP270.536874489SUPPLVA</v>
+        <v/>
       </c>
     </row>
     <row r="77" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">

--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 14 - Mash Tun 1/99RP270_S14_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 14 - Mash Tun 1/99RP270_S14_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 14 - Mash Tun 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D28C08B-DF45-0147-86A4-5A2F6B341EAA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F91D11-BCD2-9C4C-A082-F44C9C87AC8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="25560" windowHeight="21140" firstSheet="1" activeTab="4" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="1960" yWindow="460" windowWidth="26860" windowHeight="18780" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1374" uniqueCount="159">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -969,7 +969,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1043,6 +1043,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="10" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1079,8 +1081,7 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7964,14 +7965,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Operation: Massafra -  | Bergamo - Mashing in ( Mash Water Amount )</v>
+        <v>-- Operation: Massafra - 141 - Mashing in ( Mash Water Amount ) | Bergamo - Mashing in ( Mash Water Amount )</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>23</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Operation Comparison'!$N$3="NULL","",IF(ISBLANK('01 Operation Comparison'!$N$3),"",CONCATENATE('01 Operation Comparison'!$N$3," ( ",'01 Operation Comparison'!$O$3," )")))</f>
-        <v/>
+        <v>141 - Mashing in ( Mash Water Amount )</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>14</v>
@@ -11427,8 +11428,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3:K4"/>
+    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11451,28 +11452,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
@@ -11547,13 +11548,13 @@
       <c r="I3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="62" t="s">
+      <c r="J3" s="50" t="s">
         <v>155</v>
       </c>
       <c r="K3" s="44" t="s">
         <v>157</v>
       </c>
-      <c r="L3" s="61"/>
+      <c r="L3" s="49"/>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
         <v>5</v>
@@ -11596,13 +11597,13 @@
       <c r="I4" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="50" t="s">
         <v>156</v>
       </c>
       <c r="K4" s="44" t="s">
         <v>158</v>
       </c>
-      <c r="L4" s="61"/>
+      <c r="L4" s="49"/>
       <c r="N4" s="11" t="str">
         <f>'00 Value Source'!H2</f>
         <v>NULL</v>
@@ -17488,28 +17489,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -23788,7 +23789,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="G1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="K4" sqref="K4:K5"/>
     </sheetView>
   </sheetViews>
@@ -23812,28 +23813,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="51"/>
-      <c r="F1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="54"/>
-      <c r="J1" s="55" t="s">
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="56"/>
-      <c r="L1" s="57"/>
-      <c r="N1" s="58" t="s">
+      <c r="K1" s="58"/>
+      <c r="L1" s="59"/>
+      <c r="N1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="59"/>
-      <c r="P1" s="60"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="62"/>
     </row>
     <row r="2" spans="1:16" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -30559,8 +30560,8 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -30587,32 +30588,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="51"/>
-      <c r="H1" s="52" t="s">
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="53"/>
+      <c r="H1" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="54"/>
-      <c r="N1" s="55" t="s">
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="56"/>
+      <c r="N1" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="56"/>
-      <c r="P1" s="57"/>
-      <c r="R1" s="58" t="s">
+      <c r="O1" s="58"/>
+      <c r="P1" s="59"/>
+      <c r="R1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="S1" s="59"/>
-      <c r="T1" s="60"/>
+      <c r="S1" s="61"/>
+      <c r="T1" s="62"/>
     </row>
     <row r="2" spans="1:20" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -30713,8 +30714,12 @@
       <c r="M3" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="N3" s="45"/>
-      <c r="O3" s="46"/>
+      <c r="N3" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="O3" s="63" t="s">
+        <v>100</v>
+      </c>
       <c r="P3" s="47"/>
       <c r="R3" s="11" t="str">
         <f>'00 Operation Source'!C1</f>
